--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>001054</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>工银新金融股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>90.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000803</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银研究精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001171</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信养老产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011474</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001409</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信互联网加股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001320</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信丰盈回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>290004</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰信优质生活混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>61.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>001409</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>工银瑞信互联网加股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.81</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000803</t>
+          <t>000263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银研究精选股票</t>
+          <t>工银瑞信信息产业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>34.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005833</t>
+          <t>001171</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合A</t>
+          <t>工银瑞信养老产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005834</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合C</t>
+          <t>工银瑞信高质量成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>31.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>290004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>泰信优质生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>483003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>工银精选平衡混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>15.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001171</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信养老产业股票</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005943</t>
+          <t>005833</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合A</t>
+          <t>工银瑞信红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005944</t>
+          <t>001715</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合C</t>
+          <t>工银瑞信新焦点灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000263</t>
+          <t>009867</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合A</t>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011474</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合C</t>
+          <t>工银瑞信高质量成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009867</t>
+          <t>010404</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
+          <t>博道盛利6个月持有期混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009868</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>290004</t>
+          <t>002000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰信优质生活混合</t>
+          <t>工银瑞信新生利混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.44</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>005943</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>工银瑞信聚福混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>005944</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>工银瑞信聚福混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>483003</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银精选平衡混合</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>000803</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>工银研究精选股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>73.66</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001428</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合B</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>73.66</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001409</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信互联网加股票</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>002004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>工银瑞信新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>009868</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001715</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>工银瑞信新焦点灵活配置混合A</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1668,15 +2088,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>87.43</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>6.53</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1696,15 +2126,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>7.40</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>7.40</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002000</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>工银瑞信新生利混合</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>005834</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>工银瑞信红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002004</t>
+          <t>011474</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
+          <t>工银瑞信信息产业混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1864,15 +2354,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009029</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合A</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1938,26 +2458,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2466,7 +2467,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -2482,6 +2482,1770 @@
       </c>
       <c r="H38" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4251,4 +4252,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5296,4 +5297,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5305,7 +5306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5316,17 +5317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5336,14 +5357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.85</v>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5352,14 +5395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.2</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5368,14 +5433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.67</v>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5384,13 +5471,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6500,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6511,17 +6512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6531,14 +6552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.63</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6547,14 +6590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.85</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6563,14 +6628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.2</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6579,14 +6666,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.67</v>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6595,13 +6704,1569 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8149,7 +8150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8160,17 +8161,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8180,14 +8201,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.17</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8196,14 +8239,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.63</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8212,14 +8277,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.85</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8228,14 +8315,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.2</v>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8244,14 +8353,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.67</v>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -8260,13 +8391,1547 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002430-杭氧股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>14.85</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>17.17</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>16.63</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>8.85</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>10.67</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.28</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>46.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7142</t>
+          <t>2.5991</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001409</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信互联网加股票</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.66</t>
+          <t>58.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2521</t>
+          <t>2.3320</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011304</t>
+          <t>001409</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合A</t>
+          <t>工银互联网加股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>34.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>80.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1519</t>
+          <t>1.9219</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000263</t>
+          <t>011304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合A</t>
+          <t>工银创新成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.05</t>
+          <t>81.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3850</t>
+          <t>1.6878</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.51</t>
+          <t>35.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2046</t>
+          <t>1.4556</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012463</t>
+          <t>000263</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金A</t>
+          <t>工银信息产业混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8356</t>
+          <t>1.0331</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>博时裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.17</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7930</t>
+          <t>0.9219</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009029</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合A</t>
+          <t>博时成长优势混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6192</t>
+          <t>0.8810</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>011756</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>博时产业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5814</t>
+          <t>0.6640</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010088</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合A</t>
+          <t>工银高质量成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4213</t>
+          <t>0.5835</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>博时成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3432</t>
+          <t>0.4119</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>79.58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2202</t>
+          <t>0.3930</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011474</t>
+          <t>010088</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合C</t>
+          <t>工银优质成长混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.05</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1629</t>
+          <t>0.3845</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1527</t>
+          <t>0.3796</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1483</t>
+          <t>0.3568</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>011585</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>博时产业慧选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.2872</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011305</t>
+          <t>012816</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合C</t>
+          <t>国泰致和两年封闭运作混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1045</t>
+          <t>0.2500</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>501064</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1029</t>
+          <t>0.2053</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>008866</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>博时产业新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.1949</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0737</t>
+          <t>0.1810</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012153</t>
+          <t>009591</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时研究慧选混合型证券投资基金A</t>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.55</t>
+          <t>77.49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>010455</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>博时产业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.1350</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011727</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>39.42</t>
+          <t>78.88</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.1335</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005833</t>
+          <t>014506</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合A</t>
+          <t>博时成长臻选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.1257</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>012464</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0998</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010089</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>工银瑞信优质成长混合C</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0936</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009867</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
+          <t>工银量化策略混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>011305</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>工银创新成长混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>64.73</t>
+          <t>81.11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>工银高质量成长混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.0789</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007133</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>74.52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1796,32 +1813,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011874</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>博时先进制造混合型证券投资基金A</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>81.10</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009868</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>012154</t>
+          <t>011474</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>博时研究慧选混合型证券投资基金C</t>
+          <t>工银信息产业混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>76.55</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1910,36 +1927,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>013410</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合C</t>
+          <t>博时成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1948,36 +1965,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>011875</t>
+          <t>012464</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>博时先进制造混合型证券投资基金C</t>
+          <t>博时成长优势混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>81.10</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>011727</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>工银瑞信聚瑞混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>38.28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2024,36 +2041,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005834</t>
+          <t>011586</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合C</t>
+          <t>博时产业慧选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>012241</t>
+          <t>010089</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>工银量化策略混合C</t>
+          <t>工银优质成长混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2100,36 +2117,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>010456</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>博时产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>011757</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>博时产业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2176,34 +2193,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>010195</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合C</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>64.73</t>
+          <t>66.43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2212,34 +2231,638 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>011728</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>工银瑞信聚瑞混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>39.42</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="n">
-        <v>5</v>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2304,36 +2927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011304</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合A</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.47</t>
+          <t>65.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9439</t>
+          <t>2.7142</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2342,36 +2965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>001409</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>工银瑞信互联网加股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.64</t>
+          <t>37.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4931</t>
+          <t>2.2521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2380,32 +3003,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001409</t>
+          <t>011304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信互联网加股票</t>
+          <t>工银瑞信创新成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3332</t>
+          <t>2.1519</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2428,22 +3051,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.45</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>80.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7431</t>
+          <t>1.3850</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2456,36 +3079,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7369</t>
+          <t>1.2046</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2494,36 +3117,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>012463</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>博时成长优势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.73</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.65</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>0.8356</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2532,36 +3155,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012463</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金A</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>84.17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7671</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2580,26 +3203,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5925</t>
+          <t>0.6192</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2618,26 +3241,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5334</t>
+          <t>0.5814</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2646,36 +3269,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>010088</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>工银瑞信优质成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>84.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3347</t>
+          <t>0.4213</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2694,26 +3317,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.3432</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2722,36 +3345,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012477</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国匠心精选12个月持有期混合A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64.18</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2870</t>
+          <t>0.2202</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2760,36 +3383,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>011474</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>工银瑞信信息产业混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>80.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2239</t>
+          <t>0.1629</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2798,36 +3421,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2211</t>
+          <t>0.1527</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2836,36 +3459,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1997</t>
+          <t>0.1483</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2874,36 +3497,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011474</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合C</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.1190</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2912,32 +3535,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>011305</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>工银瑞信创新成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.1045</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2950,36 +3573,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005833</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.1029</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2988,36 +3611,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011305</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1066</t>
+          <t>0.0904</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -3026,36 +3649,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>012084</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+          <t>工银瑞信高质量成长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0806</t>
+          <t>0.0737</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -3064,36 +3687,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>012153</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
+          <t>博时研究慧选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>76.55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3102,36 +3725,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3140,36 +3763,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>011727</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>39.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3178,36 +3801,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012153</t>
+          <t>005833</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>博时研究慧选混合型证券投资基金A</t>
+          <t>工银瑞信红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>75.28</t>
+          <t>85.72</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0556</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3216,36 +3839,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>012464</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>博时成长优势混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0350</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -3254,36 +3877,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>010089</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>工银瑞信优质成长混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>84.26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3292,36 +3915,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>009867</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80.70</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3330,36 +3953,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009867</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3368,36 +3991,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -3406,36 +4029,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>012464</t>
+          <t>007133</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金C</t>
+          <t>嘉实长青竞争优势股票A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3444,36 +4067,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002004</t>
+          <t>011874</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
+          <t>博时先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>81.10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3482,36 +4105,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>012478</t>
+          <t>009868</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>富国匠心精选12个月持有期混合C</t>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>64.18</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3520,36 +4143,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>012154</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>博时研究慧选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>76.55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3558,36 +4181,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009868</t>
+          <t>013410</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
+          <t>博时裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3596,32 +4219,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>012154</t>
+          <t>011875</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>博时研究慧选混合型证券投资基金C</t>
+          <t>博时先进制造混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>75.28</t>
+          <t>81.10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3634,36 +4257,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3672,32 +4295,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>005834</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>工银瑞信红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>85.72</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3710,12 +4333,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>012241</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>工银量化策略混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3725,17 +4348,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3748,36 +4371,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -3786,36 +4409,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>005834</t>
+          <t>007134</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>工银瑞信红利优享灵活配置混合C</t>
+          <t>嘉实长青竞争优势股票C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3839,19 +4462,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3860,12 +4483,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>012085</t>
+          <t>011728</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3875,19 +4498,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>39.42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3896,6 +4519,1654 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5089,7 +7360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6133,7 +8404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7897,7 +10168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9352,7 +11623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
